--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/10/seed4/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.55189999999999</v>
+        <v>-11.80779999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.6771</v>
+        <v>12.74200000000001</v>
       </c>
     </row>
     <row r="5">
@@ -584,7 +584,7 @@
         <v>-19.24</v>
       </c>
       <c r="B9" t="n">
-        <v>8.915500000000009</v>
+        <v>8.833200000000007</v>
       </c>
       <c r="C9" t="n">
         <v>-13.02</v>
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>12.38529999999999</v>
+        <v>12.13349999999999</v>
       </c>
     </row>
     <row r="11">
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>4.561000000000004</v>
+        <v>4.590400000000005</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.9009</v>
+        <v>5.800800000000001</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.411000000000002</v>
+        <v>-7.325000000000005</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
